--- a/biology/Botanique/Pyrus_nivalis/Pyrus_nivalis.xlsx
+++ b/biology/Botanique/Pyrus_nivalis/Pyrus_nivalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrus nivalis, le Poirier des neiges, Poirier couleur de neige, Poirier neigeux ou Poirier d'hiver, est une espèce d'arbustes à feuilles caduques de la famille des Rosaceae, originaire d'Europe.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est nommée en français « Poirier des neiges[1],[2],[3], « Poirier couleur de neige[2],[3] », « Poirier neigeux[4],[5] » ou « Poirier d'hiver[3] », en référence à son feuillage blanchâtre du fait de l'indument persistant sur la face dorsale de la feuille[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est nommée en français « Poirier des neiges « Poirier couleur de neige, », « Poirier neigeux, » ou « Poirier d'hiver », en référence à son feuillage blanchâtre du fait de l'indument persistant sur la face dorsale de la feuille.
 </t>
         </is>
       </c>
@@ -544,14 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un arbuste d'une hauteur de 5 à 20 m. Les branches sont blanches et tomenteuses lorsqu'elles sont jeunes, puis noirâtres, généralement sans épines. Les feuilles sont portées par un pétiole tomenteux long de 1 à 2 cm ; le limbe foliaire est obovale, long de 5 à 9 cm et large de 3 à 4 cm, à base cunéiforme, décurrent, à marges entières ou légèrement crénelées, l'apex aigu ou court-acuminé, la surface abaxiale densément pubescente gris blanchâtre, l'adaxiale peu pubescente.
-Appareil reproducteur
-Les pédicelles, tomenteux et lancéolés, mesurent 3 à 6 cm de long. Les fleurs, de 35 à 45 mm de diamètre, ont les sépales triangulaires, longs de 6 à 8 mm et larges de 3 à 4 mm, l'apex acuminé ; les pétales sont blancs, obovales-elliptiques, longs de 14 à 16 mm et larges de 12 à 14 mm. Les ovaires possèdent cinq locules. Les fruits sont de petites poires vert jaunâtre avec des points violets, globuleuses, mesurant entre 3 et 5 cm de diamètre ; les sépales sont persistants sur le fruit[6].
-Confusions possibles
-Selon GRIN            (22 janvier 2024)[7], il s'agit d'une espèce hybride (nommée donc Pyrus ×nivalis) issue du croisement entre Pyrus communis et Pyrus elaeagrifolia.
-P. elaeagrifolia diffère de P. nivalis par des styles parcourus de villosités jusqu'au milieu au lieu de seulement jusqu'à la base, des fruits plus petits (2 à 3 cm de diamètre), et des feuilles souvent plus étroites, lancéolées ou étroitement elliptiques[6].
-Pyrus austriaca A.Kern., 1896, placé en synonyme de Pyrus nivalis Jacq., 1774 par l'INPN      (22 janvier 2024)[3], est une espèce distincte selon Plants of the World online (POWO)                (22 janvier 2024)[8].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste d'une hauteur de 5 à 20 m. Les branches sont blanches et tomenteuses lorsqu'elles sont jeunes, puis noirâtres, généralement sans épines. Les feuilles sont portées par un pétiole tomenteux long de 1 à 2 cm ; le limbe foliaire est obovale, long de 5 à 9 cm et large de 3 à 4 cm, à base cunéiforme, décurrent, à marges entières ou légèrement crénelées, l'apex aigu ou court-acuminé, la surface abaxiale densément pubescente gris blanchâtre, l'adaxiale peu pubescente.
 </t>
         </is>
       </c>
@@ -577,12 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce est originaire d'Europe et d'Asie mineure, présente naturellement en Autriche, Belgique, Bulgarie, Tchécoslovaquie, France continentale, Grèce, Hongrie, Italie, Pologne, Roumanie, Espagne, Suisse, Turquie, Ukraine et ex-Yougoslavie. Elle s'est naturalisée dans les états américains de Maryland et Washington[8].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pédicelles, tomenteux et lancéolés, mesurent 3 à 6 cm de long. Les fleurs, de 35 à 45 mm de diamètre, ont les sépales triangulaires, longs de 6 à 8 mm et larges de 3 à 4 mm, l'apex acuminé ; les pétales sont blancs, obovales-elliptiques, longs de 14 à 16 mm et larges de 12 à 14 mm. Les ovaires possèdent cinq locules. Les fruits sont de petites poires vert jaunâtre avec des points violets, globuleuses, mesurant entre 3 et 5 cm de diamètre ; les sépales sont persistants sur le fruit.
 </t>
         </is>
       </c>
@@ -608,13 +627,87 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (22 janvier 2024), il s'agit d'une espèce hybride (nommée donc Pyrus ×nivalis) issue du croisement entre Pyrus communis et Pyrus elaeagrifolia.
+P. elaeagrifolia diffère de P. nivalis par des styles parcourus de villosités jusqu'au milieu au lieu de seulement jusqu'à la base, des fruits plus petits (2 à 3 cm de diamètre), et des feuilles souvent plus étroites, lancéolées ou étroitement elliptiques.
+Pyrus austriaca A.Kern., 1896, placé en synonyme de Pyrus nivalis Jacq., 1774 par l'INPN      (22 janvier 2024), est une espèce distincte selon Plants of the World online (POWO)                (22 janvier 2024).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pyrus_nivalis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pyrus_nivalis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire d'Europe et d'Asie mineure, présente naturellement en Autriche, Belgique, Bulgarie, Tchécoslovaquie, France continentale, Grèce, Hongrie, Italie, Pologne, Roumanie, Espagne, Suisse, Turquie, Ukraine et ex-Yougoslavie. Elle s'est naturalisée dans les états américains de Maryland et Washington.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pyrus_nivalis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pyrus_nivalis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été formellement décrite en 1774 par le botaniste néerlandais Nikolaus Joseph von Jacquin[9].
-Pyrus nivalis a pour synonymes, selon Plants of the World online (POWO)                (22 janvier 2024)[8] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été formellement décrite en 1774 par le botaniste néerlandais Nikolaus Joseph von Jacquin.
+Pyrus nivalis a pour synonymes, selon Plants of the World online (POWO)                (22 janvier 2024) :
 (homotypiques)
 Pyrus communis subsp. nivalis (Jacq.) Gams in G.Hegi, Ill. Fl. Mitt.-Eur. 4: 697 (1922)
 Pyrus communis var. nivalis (Jacq.) Fiori in A.Fiori &amp; al., Fl. Anal. Italia 1: 599 (1898)
@@ -644,13 +737,13 @@
 Pyrus nivalis f. tokajensis Terpó in Kert. Szölész. Föisk. Évk. 22: 120 (1958 publ. 1960)
 Pyrus salviifolia DC. in Prodr. 2: 634 (1825)
 Pyrus slavonica Kit. in A.Kanitz, Addit. Fl. Hung.: 583 (1863)
-Selon l'INPN      (22 janvier 2024)[3] :
+Selon l'INPN      (22 janvier 2024) :
 Pyrus amygdaliformis var. eriopleura (Rchb.) Nyman, 1879
 Pyrus austriaca A.Kern., 1895
 Pyrus austriaca A.Kern., 1896
 Pyrus communis subsp. nivalis (Jacq.) Gams, 1922
 Pyrus eriopleura Rchb., 1832
-Selon Plants of the World online (POWO)                (22 janvier 2024)[8] Pyrus austriaca A.Kern., 1896 est une espèce distincte.
+Selon Plants of the World online (POWO)                (22 janvier 2024) Pyrus austriaca A.Kern., 1896 est une espèce distincte.
 </t>
         </is>
       </c>
